--- a/uiautomation/resources/testcases/TestCases.xlsx
+++ b/uiautomation/resources/testcases/TestCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
   <si>
     <t>ScenarioID</t>
   </si>
